--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -106,18 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>下位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,37 +138,82 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>top#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10001_1</t>
   </si>
   <si>
+    <t>10003_1</t>
+  </si>
+  <si>
+    <t>10004_1</t>
+  </si>
+  <si>
+    <t>10005_1</t>
+  </si>
+  <si>
+    <t>10006_1</t>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左先锋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右先锋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左辅助</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右辅助</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_pioneer#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_pioneer#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>commander#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_guarder#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_guarder#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>10002_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10003_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10005_1</t>
-  </si>
-  <si>
-    <t>10006_1</t>
-  </si>
-  <si>
-    <t>btm#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -565,22 +598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="3" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -588,16 +619,22 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -613,25 +650,37 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -639,107 +688,149 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -213,7 +213,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10001_1</t>
+    <t>10006_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +312,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -312,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,19 +750,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">

--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -157,46 +157,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>左先锋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右先锋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左辅助</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右辅助</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_pioneer#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_pioneer#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>commander#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_guarder#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_guarder#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10002_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -230,6 +190,54 @@
   </si>
   <si>
     <t>10010_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1排1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1排2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1排3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2排1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2排2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2排3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>row11#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>row12#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>row13#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>row21#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>row22#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>row23#id_lv</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +320,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -328,7 +336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -614,43 +622,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,8 +683,11 @@
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -681,22 +695,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -718,8 +735,11 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -730,19 +750,20 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -750,22 +771,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -783,8 +807,11 @@
       <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -802,8 +829,11 @@
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -825,8 +855,11 @@
       <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -848,6 +881,7 @@
       <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -22,6 +22,60 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+从前到后从左到右排列</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>面对敌人</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -245,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +341,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -626,7 +693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureTeam" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureTeam!$A$1:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -22,15 +22,13 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Author:</t>
@@ -38,9 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -49,18 +45,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>(</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>面对敌人</t>
@@ -68,23 +61,20 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 客户端专用
@@ -100,17 +90,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+  <si>
+    <t>TeamID</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>1排1</t>
+  </si>
+  <si>
+    <t>1排2</t>
+  </si>
+  <si>
+    <t>1排3</t>
+  </si>
+  <si>
+    <t>2排1</t>
+  </si>
+  <si>
+    <t>2排2</t>
+  </si>
+  <si>
+    <t>2排3</t>
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>j</t>
     </r>
     <r>
@@ -118,16 +134,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -135,171 +156,162 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>row11#id_lv</t>
+  </si>
+  <si>
+    <t>row12#id_lv</t>
+  </si>
+  <si>
+    <t>row13#id_lv</t>
+  </si>
+  <si>
+    <t>row21#id_lv</t>
+  </si>
+  <si>
+    <t>row22#id_lv</t>
+  </si>
+  <si>
+    <t>row23#id_lv</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6级怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5级怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#初入江湖</t>
+  </si>
+  <si>
+    <t>木桩练手</t>
   </si>
   <si>
     <t>10001_1</t>
   </si>
   <si>
+    <t>野兔练手</t>
+  </si>
+  <si>
+    <t>10002_1</t>
+  </si>
+  <si>
+    <t>凶狼实战</t>
+  </si>
+  <si>
     <t>10003_1</t>
   </si>
   <si>
+    <t>阿幺的考验</t>
+  </si>
+  <si>
     <t>10004_1</t>
   </si>
   <si>
+    <t>路遇强盗</t>
+  </si>
+  <si>
     <t>10005_1</t>
   </si>
   <si>
+    <t>出村遇土匪</t>
+  </si>
+  <si>
     <t>10006_1</t>
   </si>
   <si>
-    <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10006_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>土匪头目</t>
   </si>
   <si>
     <t>10007_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪大哥</t>
   </si>
   <si>
     <t>10008_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#小镇</t>
+  </si>
+  <si>
+    <t>恶狠狠的家仆</t>
   </si>
   <si>
     <t>10009_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打手帮忙</t>
   </si>
   <si>
     <t>10010_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1排1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1排2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1排3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2排1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2排2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2排3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>row11#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>row12#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>row13#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>row21#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>row22#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>row23#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家跋扈</t>
+  </si>
+  <si>
+    <t>10011_1</t>
+  </si>
+  <si>
+    <t>打手齐上</t>
+  </si>
+  <si>
+    <t>伪善财主</t>
+  </si>
+  <si>
+    <t>10012_1</t>
+  </si>
+  <si>
+    <t>不听解释的衙役</t>
+  </si>
+  <si>
+    <t>10013_1</t>
+  </si>
+  <si>
+    <t>蛮横的衙役头目</t>
+  </si>
+  <si>
+    <t>10014_1</t>
+  </si>
+  <si>
+    <t>师爷出面</t>
+  </si>
+  <si>
+    <t>10015_1</t>
+  </si>
+  <si>
+    <t>全体出动</t>
+  </si>
+  <si>
+    <t>贪官的实力</t>
+  </si>
+  <si>
+    <t>10016_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,63 +320,393 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -372,31 +714,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,7 +1086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +1121,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,277 +1324,532 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5416666666667" customWidth="1"/>
+    <col min="3" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3"/>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\gworld\plan\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureTeam" sheetId="4" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>TeamID</t>
   </si>
@@ -123,7 +128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -133,7 +138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,7 +150,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,9 +168,6 @@
     </r>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>row11#id_lv</t>
   </si>
   <si>
@@ -185,9 +187,6 @@
   </si>
   <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>map</t>
@@ -304,177 +303,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
-      <name val="宋体"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,7 +343,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,204 +358,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -714,253 +377,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -982,62 +403,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1324,24 +702,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5416666666667" customWidth="1"/>
-    <col min="3" max="8" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1374,9 +751,7 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1400,57 +775,52 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
@@ -1465,11 +835,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1481,13 +851,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1499,16 +869,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1519,16 +889,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1539,16 +909,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1559,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1579,16 +949,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1599,30 +969,30 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1">
+      <c r="A14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
@@ -1637,14 +1007,14 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1655,16 +1025,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1675,16 +1045,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1695,25 +1065,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1721,16 +1091,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1741,13 +1111,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1759,16 +1129,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1779,16 +1149,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1799,25 +1169,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1825,31 +1195,30 @@
         <v>18</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan/excel/creature_team_怪物队伍表.xlsx
+++ b/plan/excel/creature_team_怪物队伍表.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>TeamID</t>
   </si>
@@ -168,136 +168,85 @@
     </r>
   </si>
   <si>
-    <t>row11#id_lv</t>
-  </si>
-  <si>
-    <t>row12#id_lv</t>
-  </si>
-  <si>
-    <t>row13#id_lv</t>
-  </si>
-  <si>
-    <t>row21#id_lv</t>
-  </si>
-  <si>
-    <t>row22#id_lv</t>
-  </si>
-  <si>
-    <t>row23#id_lv</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
     <t>#初入江湖</t>
   </si>
   <si>
     <t>木桩练手</t>
   </si>
   <si>
-    <t>10001_1</t>
-  </si>
-  <si>
     <t>野兔练手</t>
   </si>
   <si>
-    <t>10002_1</t>
-  </si>
-  <si>
     <t>凶狼实战</t>
   </si>
   <si>
-    <t>10003_1</t>
-  </si>
-  <si>
     <t>阿幺的考验</t>
   </si>
   <si>
-    <t>10004_1</t>
-  </si>
-  <si>
     <t>路遇强盗</t>
   </si>
   <si>
-    <t>10005_1</t>
-  </si>
-  <si>
     <t>出村遇土匪</t>
   </si>
   <si>
-    <t>10006_1</t>
-  </si>
-  <si>
     <t>土匪头目</t>
   </si>
   <si>
-    <t>10007_1</t>
-  </si>
-  <si>
     <t>土匪大哥</t>
   </si>
   <si>
-    <t>10008_1</t>
-  </si>
-  <si>
     <t>#小镇</t>
   </si>
   <si>
     <t>恶狠狠的家仆</t>
   </si>
   <si>
-    <t>10009_1</t>
-  </si>
-  <si>
     <t>打手帮忙</t>
   </si>
   <si>
-    <t>10010_1</t>
-  </si>
-  <si>
     <t>管家跋扈</t>
   </si>
   <si>
-    <t>10011_1</t>
-  </si>
-  <si>
     <t>打手齐上</t>
   </si>
   <si>
     <t>伪善财主</t>
   </si>
   <si>
-    <t>10012_1</t>
-  </si>
-  <si>
     <t>不听解释的衙役</t>
   </si>
   <si>
-    <t>10013_1</t>
-  </si>
-  <si>
     <t>蛮横的衙役头目</t>
   </si>
   <si>
-    <t>10014_1</t>
-  </si>
-  <si>
     <t>师爷出面</t>
   </si>
   <si>
-    <t>10015_1</t>
-  </si>
-  <si>
     <t>全体出动</t>
   </si>
   <si>
     <t>贪官的实力</t>
   </si>
   <si>
-    <t>10016_1</t>
+    <t>row11</t>
+  </si>
+  <si>
+    <t>row12</t>
+  </si>
+  <si>
+    <t>row13</t>
+  </si>
+  <si>
+    <t>row21</t>
+  </si>
+  <si>
+    <t>row22</t>
+  </si>
+  <si>
+    <t>row23</t>
   </si>
 </sst>
 </file>
@@ -381,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,7 +339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -404,6 +352,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -712,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -776,444 +729,444 @@
         <v>10</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>10001</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10002</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10002</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10003</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10003</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10002</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10004</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10003</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C10" s="8">
+        <v>10005</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10005</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10005</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C11" s="11">
+        <v>10006</v>
+      </c>
+      <c r="D11" s="11">
+        <v>10006</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10006</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11">
+        <v>10006</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10007</v>
+      </c>
+      <c r="E12" s="11">
+        <v>10006</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11">
+        <v>10007</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10008</v>
+      </c>
+      <c r="E13" s="11">
+        <v>10007</v>
+      </c>
+      <c r="F13" s="11">
+        <v>10006</v>
+      </c>
+      <c r="G13" s="11">
+        <v>10006</v>
+      </c>
+      <c r="H13" s="11">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10009</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>10009</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10009</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10010</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10009</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10010</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10011</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10009</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10010</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10011</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10010</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10010</v>
+      </c>
+      <c r="G18" s="6">
+        <v>10010</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10011</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10012</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10010</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <v>10013</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10013</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9">
+        <v>10013</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10014</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10013</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10014</v>
+      </c>
+      <c r="D22" s="9">
+        <v>10015</v>
+      </c>
+      <c r="E22" s="9">
+        <v>10013</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10014</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10015</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10014</v>
+      </c>
+      <c r="F23" s="9">
+        <v>10013</v>
+      </c>
+      <c r="G23" s="9">
+        <v>10013</v>
+      </c>
+      <c r="H23" s="9">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10">
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10">
-        <v>15</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10">
-        <v>17</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10">
-        <v>18</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>47</v>
+      <c r="C24" s="9">
+        <v>10015</v>
+      </c>
+      <c r="D24" s="9">
+        <v>10016</v>
+      </c>
+      <c r="E24" s="9">
+        <v>10014</v>
+      </c>
+      <c r="F24" s="9">
+        <v>10013</v>
+      </c>
+      <c r="G24" s="9">
+        <v>10013</v>
+      </c>
+      <c r="H24" s="9">
+        <v>10013</v>
       </c>
     </row>
   </sheetData>
